--- a/Phase1-answer/Question2-part B/Q2Data-PartB.xlsx
+++ b/Phase1-answer/Question2-part B/Q2Data-PartB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase1-answer\Question2-part B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B645E9C-9849-41BD-83D0-1644AA9E16D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B41AE2-57D9-4615-8D7F-203A3CA96B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="6228" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -810,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A203CED8-CDDC-4CB8-9B24-5C49AE890F0F}">
   <dimension ref="A3:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1487,22 +1490,22 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1517,22 +1520,22 @@
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1547,22 +1550,22 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1577,22 +1580,22 @@
       <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1607,22 +1610,22 @@
       <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6">
-        <v>1</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
         <v>0</v>
       </c>
     </row>

--- a/Phase1-answer/Question2-part B/Q2Data-PartB.xlsx
+++ b/Phase1-answer/Question2-part B/Q2Data-PartB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase1-answer\Question2-part B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B41AE2-57D9-4615-8D7F-203A3CA96B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB8BB0-F941-4C95-B3BA-980381544C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Veg</t>
   </si>
@@ -163,16 +163,39 @@
   </si>
   <si>
     <t>UY3</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Inventory Cost</t>
+  </si>
+  <si>
+    <t>Material Cost</t>
+  </si>
+  <si>
+    <t>unique oils</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +219,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -240,10 +270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,14 +294,18 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -811,20 +846,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A203CED8-CDDC-4CB8-9B24-5C49AE890F0F}">
-  <dimension ref="A3:R32"/>
+  <dimension ref="A3:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="2.109375" style="1" bestFit="1" customWidth="1"/>
@@ -833,7 +868,7 @@
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -865,11 +900,11 @@
         <v>23</v>
       </c>
       <c r="M3" s="5">
-        <v>405000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+        <v>398250.00000008568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -882,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>10.000000001142723</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -894,20 +929,20 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
+        <v>15.370374081286712</v>
       </c>
       <c r="J4" s="6">
-        <v>370.37037037037038</v>
+        <v>414.81481481480864</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="5">
-        <v>251865.74074074076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+        <v>253768.9814444228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -927,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <v>244.4444444444444</v>
+        <v>129.62962591814818</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -939,11 +974,11 @@
         <v>25</v>
       </c>
       <c r="M5" s="5">
-        <v>56319.444444444445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+        <v>49943.981462935888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -957,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>50.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>103.33333333333337</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -975,11 +1010,11 @@
         <v>26</v>
       </c>
       <c r="M6" s="5">
-        <v>96814.814814814803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+        <v>94537.037092726998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1005,11 +1040,11 @@
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+        <v>662.50000000049999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1026,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>775</v>
+        <v>146.66666666666663</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>587.49999999950001</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1066,30 +1101,9 @@
       <c r="J11" s="3">
         <v>6</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>2</v>
-      </c>
-      <c r="O11" s="3">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>5</v>
-      </c>
-      <c r="R11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1102,53 +1116,26 @@
         <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>155.00000000057136</v>
       </c>
       <c r="G12" s="6">
-        <v>85.185185185185176</v>
+        <v>3.7114814972483146E-6</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <v>85.185185185185176</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
-        <f>SUMPRODUCT(E12:E16, input!$J$3:$J$7)/ SUM(output!E12:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="N12" s="1">
-        <f>SUMPRODUCT(F12:F16, input!$J$3:$J$7)/ SUM(output!F12:F16)</f>
-        <v>5.2222222222222223</v>
-      </c>
-      <c r="O12" s="1">
-        <f>SUMPRODUCT(G12:G16, input!$J$3:$J$7)/ SUM(output!G12:G16)</f>
-        <v>6</v>
-      </c>
-      <c r="P12" s="1">
-        <f>SUMPRODUCT(H12:H16, input!$J$3:$J$7)/ SUM(output!H12:H16)</f>
-        <v>5.3555555555555552</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>SUMPRODUCT(I12:I16, input!$J$3:$J$7)/ SUM(output!I12:I16)</f>
-        <v>6</v>
-      </c>
-      <c r="R12" s="1">
-        <f>SUMPRODUCT(J12:J16, input!$J$3:$J$7)/ SUM(output!J12:J16)</f>
-        <v>5.0444444444444443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1162,23 +1149,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>114.81481481481482</v>
+        <v>199.9999962885185</v>
       </c>
       <c r="H13" s="6">
-        <v>200</v>
+        <v>200.00000000000009</v>
       </c>
       <c r="I13" s="6">
-        <v>114.81481481481482</v>
+        <v>114.8148148148148</v>
       </c>
       <c r="J13" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>50.000000000000078</v>
+        <v>103.3333333333334</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -1207,8 +1194,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1219,26 +1206,26 @@
         <v>2</v>
       </c>
       <c r="E15" s="6">
-        <v>199.99999999999991</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>150.00000000000006</v>
+        <v>230.00000000199998</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>134.99999999900001</v>
       </c>
       <c r="H15" s="6">
-        <v>75.000000000000028</v>
+        <v>67.499999999500005</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
       </c>
       <c r="J15" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1249,22 +1236,22 @@
         <v>3</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>146.6666666666666</v>
       </c>
       <c r="F16" s="6">
-        <v>99.999999999999943</v>
+        <v>19.999999998000021</v>
       </c>
       <c r="G16" s="6">
-        <v>250</v>
+        <v>115.00000000099999</v>
       </c>
       <c r="H16" s="6">
-        <v>174.99999999999997</v>
+        <v>182.50000000049999</v>
       </c>
       <c r="I16" s="6">
         <v>250</v>
       </c>
       <c r="J16" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1297,7 +1284,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1310,26 +1297,26 @@
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>300</v>
+        <v>310.00000000114272</v>
       </c>
       <c r="F20" s="6">
-        <v>300</v>
+        <v>155.00000000057136</v>
       </c>
       <c r="G20" s="6">
-        <v>214.81481481481484</v>
+        <v>154.99999628908986</v>
       </c>
       <c r="H20" s="6">
-        <v>214.81481481481484</v>
+        <v>154.99999628908986</v>
       </c>
       <c r="I20" s="6">
-        <v>129.62962962962962</v>
+        <v>85.185185185191358</v>
       </c>
       <c r="J20" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1343,13 +1330,13 @@
         <v>500</v>
       </c>
       <c r="F21" s="6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G21" s="6">
-        <v>185.18518518518516</v>
+        <v>300.0000037114815</v>
       </c>
       <c r="H21" s="6">
-        <v>229.62962962962956</v>
+        <v>229.62962962962959</v>
       </c>
       <c r="I21" s="6">
         <v>114.81481481481478</v>
@@ -1359,7 +1346,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1370,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="6">
-        <v>449.99999999999994</v>
+        <v>396.66666666666663</v>
       </c>
       <c r="F22" s="6">
-        <v>500</v>
+        <v>396.66666666666663</v>
       </c>
       <c r="G22" s="6">
-        <v>500</v>
+        <v>396.66666666666663</v>
       </c>
       <c r="H22" s="6">
         <v>500</v>
@@ -1389,7 +1376,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1400,26 +1387,26 @@
         <v>2</v>
       </c>
       <c r="E23" s="6">
-        <v>300.00000000000011</v>
+        <v>500</v>
       </c>
       <c r="F23" s="6">
-        <v>150.00000000000006</v>
+        <v>269.99999999800002</v>
       </c>
       <c r="G23" s="6">
-        <v>150.00000000000006</v>
+        <v>134.99999999900001</v>
       </c>
       <c r="H23" s="6">
-        <v>75.000000000000028</v>
+        <v>67.499999999500005</v>
       </c>
       <c r="I23" s="6">
-        <v>75</v>
+        <v>67.499999999500005</v>
       </c>
       <c r="J23" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1430,19 +1417,19 @@
         <v>3</v>
       </c>
       <c r="E24" s="6">
-        <v>500</v>
+        <v>353.33333333333337</v>
       </c>
       <c r="F24" s="6">
-        <v>400.00000000000006</v>
+        <v>333.33333333533335</v>
       </c>
       <c r="G24" s="6">
-        <v>925</v>
+        <v>365.00000000099999</v>
       </c>
       <c r="H24" s="6">
-        <v>750</v>
+        <v>182.50000000049999</v>
       </c>
       <c r="I24" s="6">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="J24" s="6">
         <v>500</v>
@@ -1478,7 +1465,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1490,27 +1477,27 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1520,27 +1507,27 @@
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1550,27 +1537,27 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1580,27 +1567,27 @@
       <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1610,23 +1597,271 @@
       <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1">
+        <f>SUM(E12:E16)* input!$C$9</f>
+        <v>67500</v>
+      </c>
+      <c r="F36" s="1">
+        <f>SUM(F12:F16)* input!$C$9</f>
+        <v>60750.000000085711</v>
+      </c>
+      <c r="G36" s="1">
+        <f>SUM(G12:G16)* input!$C$9</f>
+        <v>67500</v>
+      </c>
+      <c r="H36" s="1">
+        <f>SUM(H12:H16)* input!$C$9</f>
+        <v>67500.000000000015</v>
+      </c>
+      <c r="I36" s="1">
+        <f>SUM(I12:I16)* input!$C$9</f>
+        <v>67500</v>
+      </c>
+      <c r="J36" s="1">
+        <f>SUM(J12:J16)* input!$C$9</f>
+        <v>67500</v>
+      </c>
+      <c r="K36" s="9">
+        <f>SUM(E36:J36)</f>
+        <v>398250.00000008574</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="6">
+        <f>SUM(E20:E24)</f>
+        <v>2060.0000000011428</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" ref="F37:J37" si="0">SUM(F20:F24)</f>
+        <v>1655.0000000005716</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>1351.6666666672381</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="0"/>
+        <v>1134.6296259187195</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>1287.4999999995061</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1">
+        <f>E37*input!$C$12</f>
+        <v>10300.000000005713</v>
+      </c>
+      <c r="F38" s="1">
+        <f>F37*input!$C$12</f>
+        <v>8275.0000000028576</v>
+      </c>
+      <c r="G38" s="1">
+        <f>G37*input!$C$12</f>
+        <v>6758.3333333361907</v>
+      </c>
+      <c r="H38" s="1">
+        <f>H37*input!$C$12</f>
+        <v>5673.1481295935973</v>
+      </c>
+      <c r="I38" s="1">
+        <f>I37*input!$C$12</f>
+        <v>6437.4999999975307</v>
+      </c>
+      <c r="J38" s="1">
+        <f>J37*input!$C$12</f>
+        <v>12500</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" ref="K38:K40" si="1">SUM(E38:J38)</f>
+        <v>49943.981462935895</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1">
+        <f>SUMPRODUCT(E4:E8, input!D3:D7)</f>
+        <v>1100.0000001256994</v>
+      </c>
+      <c r="F39" s="1">
+        <f>SUMPRODUCT(F4:F8, input!E3:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f>SUMPRODUCT(G4:G8, input!F3:F7)</f>
+        <v>13933.33333333333</v>
+      </c>
+      <c r="H39" s="1">
+        <f>SUMPRODUCT(H4:H8, input!G3:G7)</f>
+        <v>26659.258850996302</v>
+      </c>
+      <c r="I39" s="1">
+        <f>SUMPRODUCT(I4:I8, input!H3:H7)</f>
+        <v>63224.537408076176</v>
+      </c>
+      <c r="J39" s="1">
+        <f>SUMPRODUCT(J4:J8, input!I3:I7)</f>
+        <v>148851.85185189132</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="1"/>
+        <v>253768.98144442283</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36-E38-E39</f>
+        <v>56099.999999868589</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40:J40" si="2">F36-F38-F39</f>
+        <v>52475.000000082851</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>46808.333333330484</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="2"/>
+        <v>35167.593019410117</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="2"/>
+        <v>-2162.0374080737092</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="2"/>
+        <v>-93851.851851891319</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="1"/>
+        <v>94537.037092727027</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <f>SUMPRODUCT(E12:E16, input!$J$3:$J$7)/ SUM(output!E12:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <f>SUMPRODUCT(F12:F16, input!$J$3:$J$7)/ SUM(output!F12:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G41" s="1">
+        <f>SUMPRODUCT(G12:G16, input!$J$3:$J$7)/ SUM(output!G12:G16)</f>
+        <v>5.2488889111595549</v>
+      </c>
+      <c r="H41" s="1">
+        <f>SUMPRODUCT(H12:H16, input!$J$3:$J$7)/ SUM(output!H12:H16)</f>
+        <v>5.368888888889777</v>
+      </c>
+      <c r="I41" s="1">
+        <f>SUMPRODUCT(I12:I16, input!$J$3:$J$7)/ SUM(output!I12:I16)</f>
+        <v>6</v>
+      </c>
+      <c r="J41" s="1">
+        <f>SUMPRODUCT(J12:J16, input!$J$3:$J$7)/ SUM(output!J12:J16)</f>
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="7">
+        <f>SUM(E28:E32)</f>
+        <v>3</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" ref="F42:J42" si="3">SUM(F28:F32)</f>
+        <v>3</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1-answer/Question2-part B/Q2Data-PartB.xlsx
+++ b/Phase1-answer/Question2-part B/Q2Data-PartB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase1-answer\Question2-part B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB8BB0-F941-4C95-B3BA-980381544C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F288BE-6ABA-4D9D-9A7C-3A1A02388CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -297,11 +297,11 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,11 +900,11 @@
         <v>23</v>
       </c>
       <c r="M3" s="5">
-        <v>398250.00000008568</v>
+        <v>391500</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>10.000000001142723</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -929,20 +929,20 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>15.370374081286712</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>414.81481481480864</v>
+        <v>480.37037037037021</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="5">
-        <v>253768.9814444228</v>
+        <v>236796.29629629629</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -962,23 +962,23 @@
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <v>129.62962591814818</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>585.18518518518522</v>
+        <v>629.62962962962968</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M5" s="5">
-        <v>49943.981462935888</v>
+        <v>54425.000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>103.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1010,11 +1010,11 @@
         <v>26</v>
       </c>
       <c r="M6" s="5">
-        <v>94537.037092726998</v>
+        <v>100278.70370370371</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -1040,11 +1040,11 @@
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>662.50000000049999</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>146.66666666666663</v>
+        <v>580</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>587.49999999950001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -1103,7 +1103,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1116,26 +1116,26 @@
         <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>200.00000000000003</v>
+        <v>85.185185185185176</v>
       </c>
       <c r="F12" s="6">
-        <v>155.00000000057136</v>
+        <v>85.185185185185176</v>
       </c>
       <c r="G12" s="6">
-        <v>3.7114814972483146E-6</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
+        <v>154.99999999999994</v>
       </c>
       <c r="I12" s="6">
-        <v>85.18518518518519</v>
+        <v>154.99999999999994</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1146,26 +1146,26 @@
         <v>2</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>114.81481481481482</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>114.81481481481482</v>
       </c>
       <c r="G13" s="6">
-        <v>199.9999962885185</v>
+        <v>200</v>
       </c>
       <c r="H13" s="6">
-        <v>200.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6">
-        <v>114.8148148148148</v>
+        <v>0</v>
       </c>
       <c r="J13" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>103.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1209,23 +1209,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>230.00000000199998</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>134.99999999900001</v>
+        <v>230</v>
       </c>
       <c r="H15" s="6">
-        <v>67.499999999500005</v>
+        <v>230</v>
       </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="J15" s="6">
         <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1236,19 +1236,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="6">
-        <v>146.6666666666666</v>
+        <v>250</v>
       </c>
       <c r="F16" s="6">
-        <v>19.999999998000021</v>
+        <v>250</v>
       </c>
       <c r="G16" s="6">
-        <v>115.00000000099999</v>
+        <v>20</v>
       </c>
       <c r="H16" s="6">
-        <v>182.50000000049999</v>
+        <v>20</v>
       </c>
       <c r="I16" s="6">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="J16" s="6">
         <v>20</v>
@@ -1284,7 +1284,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1297,26 +1297,26 @@
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>310.00000000114272</v>
+        <v>414.81481481481484</v>
       </c>
       <c r="F20" s="6">
-        <v>155.00000000057136</v>
+        <v>329.62962962962968</v>
       </c>
       <c r="G20" s="6">
-        <v>154.99999628908986</v>
+        <v>329.62962962962968</v>
       </c>
       <c r="H20" s="6">
-        <v>154.99999628908986</v>
+        <v>174.62962962962973</v>
       </c>
       <c r="I20" s="6">
-        <v>85.185185185191358</v>
+        <v>19.62962962962979</v>
       </c>
       <c r="J20" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1327,26 +1327,26 @@
         <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>500</v>
+        <v>385.18518518518516</v>
       </c>
       <c r="F21" s="6">
-        <v>500</v>
+        <v>270.37037037037032</v>
       </c>
       <c r="G21" s="6">
-        <v>300.0000037114815</v>
+        <v>70.370370370370324</v>
       </c>
       <c r="H21" s="6">
-        <v>229.62962962962959</v>
+        <v>70.370370370370324</v>
       </c>
       <c r="I21" s="6">
-        <v>114.81481481481478</v>
+        <v>70.370370370370324</v>
       </c>
       <c r="J21" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="6">
-        <v>396.66666666666663</v>
+        <v>500</v>
       </c>
       <c r="F22" s="6">
-        <v>396.66666666666663</v>
+        <v>500</v>
       </c>
       <c r="G22" s="6">
-        <v>396.66666666666663</v>
+        <v>500</v>
       </c>
       <c r="H22" s="6">
         <v>500</v>
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1390,23 +1390,23 @@
         <v>500</v>
       </c>
       <c r="F23" s="6">
-        <v>269.99999999800002</v>
+        <v>690</v>
       </c>
       <c r="G23" s="6">
-        <v>134.99999999900001</v>
+        <v>460</v>
       </c>
       <c r="H23" s="6">
-        <v>67.499999999500005</v>
+        <v>230</v>
       </c>
       <c r="I23" s="6">
-        <v>67.499999999500005</v>
+        <v>0</v>
       </c>
       <c r="J23" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1417,16 +1417,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="6">
-        <v>353.33333333333337</v>
+        <v>250</v>
       </c>
       <c r="F24" s="6">
-        <v>333.33333333533335</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6">
-        <v>365.00000000099999</v>
+        <v>560</v>
       </c>
       <c r="H24" s="6">
-        <v>182.50000000049999</v>
+        <v>540</v>
       </c>
       <c r="I24" s="6">
         <v>520</v>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -1497,7 +1497,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1508,26 +1508,26 @@
         <v>2</v>
       </c>
       <c r="E29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -1557,7 +1557,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -1580,14 +1580,14 @@
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="F36" s="1">
         <f>SUM(F12:F16)* input!$C$9</f>
-        <v>60750.000000085711</v>
+        <v>67500</v>
       </c>
       <c r="G36" s="1">
         <f>SUM(G12:G16)* input!$C$9</f>
@@ -1660,19 +1660,19 @@
       </c>
       <c r="H36" s="1">
         <f>SUM(H12:H16)* input!$C$9</f>
-        <v>67500.000000000015</v>
+        <v>60749.999999999993</v>
       </c>
       <c r="I36" s="1">
         <f>SUM(I12:I16)* input!$C$9</f>
-        <v>67500</v>
+        <v>60749.999999999993</v>
       </c>
       <c r="J36" s="1">
         <f>SUM(J12:J16)* input!$C$9</f>
         <v>67500</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <f>SUM(E36:J36)</f>
-        <v>398250.00000008574</v>
+        <v>391500</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
@@ -1681,29 +1681,29 @@
       </c>
       <c r="E37" s="6">
         <f>SUM(E20:E24)</f>
-        <v>2060.0000000011428</v>
+        <v>2050</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" ref="F37:J37" si="0">SUM(F20:F24)</f>
-        <v>1655.0000000005716</v>
+        <v>1790</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>1351.6666666672381</v>
+        <v>1920</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="0"/>
-        <v>1134.6296259187195</v>
+        <v>1515</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="0"/>
-        <v>1287.4999999995061</v>
+        <v>1110</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1713,31 +1713,31 @@
       </c>
       <c r="E38" s="1">
         <f>E37*input!$C$12</f>
-        <v>10300.000000005713</v>
+        <v>10250</v>
       </c>
       <c r="F38" s="1">
         <f>F37*input!$C$12</f>
-        <v>8275.0000000028576</v>
+        <v>8950</v>
       </c>
       <c r="G38" s="1">
         <f>G37*input!$C$12</f>
-        <v>6758.3333333361907</v>
+        <v>9600</v>
       </c>
       <c r="H38" s="1">
         <f>H37*input!$C$12</f>
-        <v>5673.1481295935973</v>
+        <v>7575</v>
       </c>
       <c r="I38" s="1">
         <f>I37*input!$C$12</f>
-        <v>6437.4999999975307</v>
+        <v>5550</v>
       </c>
       <c r="J38" s="1">
         <f>J37*input!$C$12</f>
         <v>12500</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <f t="shared" ref="K38:K40" si="1">SUM(E38:J38)</f>
-        <v>49943.981462935895</v>
+        <v>54425</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.3">
@@ -1746,31 +1746,31 @@
       </c>
       <c r="E39" s="1">
         <f>SUMPRODUCT(E4:E8, input!D3:D7)</f>
-        <v>1100.0000001256994</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <f>SUMPRODUCT(F4:F8, input!E3:E7)</f>
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="G39" s="1">
         <f>SUMPRODUCT(G4:G8, input!F3:F7)</f>
-        <v>13933.33333333333</v>
+        <v>55100</v>
       </c>
       <c r="H39" s="1">
         <f>SUMPRODUCT(H4:H8, input!G3:G7)</f>
-        <v>26659.258850996302</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
         <f>SUMPRODUCT(I4:I8, input!H3:H7)</f>
-        <v>63224.537408076176</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
         <f>SUMPRODUCT(J4:J8, input!I3:I7)</f>
-        <v>148851.85185189132</v>
-      </c>
-      <c r="K39" s="9">
+        <v>164596.29629629629</v>
+      </c>
+      <c r="K39" s="8">
         <f t="shared" si="1"/>
-        <v>253768.98144442283</v>
+        <v>236796.29629629629</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">
@@ -1779,31 +1779,31 @@
       </c>
       <c r="E40" s="1">
         <f>E36-E38-E39</f>
-        <v>56099.999999868589</v>
+        <v>57250</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ref="F40:J40" si="2">F36-F38-F39</f>
-        <v>52475.000000082851</v>
+        <v>41450</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
-        <v>46808.333333330484</v>
+        <v>2800</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>35167.593019410117</v>
+        <v>53174.999999999993</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="2"/>
-        <v>-2162.0374080737092</v>
+        <v>55199.999999999993</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="2"/>
-        <v>-93851.851851891319</v>
-      </c>
-      <c r="K40" s="9">
+        <v>-109596.29629629629</v>
+      </c>
+      <c r="K40" s="8">
         <f t="shared" si="1"/>
-        <v>94537.037092727027</v>
+        <v>100278.70370370371</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.3">
@@ -1820,11 +1820,11 @@
       </c>
       <c r="G41" s="1">
         <f>SUMPRODUCT(G12:G16, input!$J$3:$J$7)/ SUM(output!G12:G16)</f>
-        <v>5.2488889111595549</v>
+        <v>5.08</v>
       </c>
       <c r="H41" s="1">
         <f>SUMPRODUCT(H12:H16, input!$J$3:$J$7)/ SUM(output!H12:H16)</f>
-        <v>5.368888888889777</v>
+        <v>6</v>
       </c>
       <c r="I41" s="1">
         <f>SUMPRODUCT(I12:I16, input!$J$3:$J$7)/ SUM(output!I12:I16)</f>
